--- a/Gusek Results.xlsx
+++ b/Gusek Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID MORA MEZA\Documents\GitHub\OS01_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD2C5D6-5BA3-4AD7-809B-264AE9C0C54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2E631-3647-4337-9AC9-34D9D7294FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E67B5E9D-7F29-4800-BEF4-464AF5D51827}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -181,8 +181,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -244,8 +244,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1787,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30017F30-44D3-4975-8668-71C9B9EF4275}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>

--- a/Gusek Results.xlsx
+++ b/Gusek Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID MORA MEZA\Documents\GitHub\OS01_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC2E631-3647-4337-9AC9-34D9D7294FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA285917-890C-44E5-9E3F-0851720BAEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{E67B5E9D-7F29-4800-BEF4-464AF5D51827}"/>
   </bookViews>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>t</t>
   </si>
@@ -175,6 +153,18 @@
   <si>
     <t>paille</t>
   </si>
+  <si>
+    <t>Biomasse</t>
+  </si>
+  <si>
+    <t>fournisseur</t>
+  </si>
+  <si>
+    <t>Jour</t>
+  </si>
+  <si>
+    <t>H(t)</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +236,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1785,1061 +1781,600 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30017F30-44D3-4975-8668-71C9B9EF4275}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="10" width="7.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>20</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>60</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" cm="1">
-        <f t="array" ref="L3:S6">+C3:J6-Hoja3!C3:J6</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>26.667000000000002</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>30</v>
       </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
         <v>28.332999999999998</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="8">
         <v>30</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
         <v>52.5</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
         <v>27.5</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <v>30</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
         <v>30</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>-30</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>30</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <v>60</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>-30</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>30</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9" s="6">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="6">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9" s="6">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="6">
         <v>8</v>
       </c>
-      <c r="K9" s="5" cm="1">
-        <f t="array" ref="K9:R12">+B9:I12-Hoja3!B9:I12</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="9">
         <v>15</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="9">
         <v>26.667000000000002</v>
       </c>
-      <c r="D10" s="4">
+      <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="9">
         <v>75</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="9">
         <v>30</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="9">
         <v>26.667000000000002</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="9">
         <v>30</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="9">
         <v>1.667</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>-1.6659999999999968</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="9">
         <v>10</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="9">
         <v>22.5</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>30</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="9">
         <v>27.5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="9">
         <v>60</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="9">
         <v>60</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>2.5</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="6">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="6">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="6">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="6">
         <v>7</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>15</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="7">
         <v>30</v>
       </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <v>1.667</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="7">
         <v>1.667</v>
       </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" cm="1">
-        <f t="array" ref="K15:R18">+B15:I18-Hoja3!B15:I18</f>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>1.667</v>
-      </c>
-      <c r="Q15">
-        <v>1.667</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <v>30</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="7">
         <v>30</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>-2.5</v>
-      </c>
-      <c r="Q16">
-        <v>-2.5</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <v>4</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>7</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5" cm="1">
-        <f t="array" ref="L20:S23">+C20:J23-Hoja3!C20:J23</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
         <v>2</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>-1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="E26" s="6">
         <v>3</v>
       </c>
-      <c r="E26">
+      <c r="F26" s="6">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="6">
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="H26" s="6">
         <v>6</v>
       </c>
-      <c r="H26">
+      <c r="I26" s="6">
         <v>7</v>
       </c>
-      <c r="I26">
+      <c r="J26" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
         <v>1.524</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="7">
         <v>3.6</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="7">
         <v>4</v>
       </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
         <v>2.7050000000000001</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="7">
         <v>4.0860000000000003</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="7">
         <v>2.762</v>
       </c>
-      <c r="K27" s="5" cm="1">
-        <f t="array" ref="K27:R30">+B27:I30-Hoja3!B27:I30</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="5">
-        <v>-0.47599999999999998</v>
-      </c>
-      <c r="M27">
-        <v>-0.39999999999999991</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>-0.29499999999999993</v>
-      </c>
-      <c r="Q27">
-        <v>8.6000000000000298E-2</v>
-      </c>
-      <c r="R27">
-        <v>-0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
